--- a/src/models/baselines/SVM/results/synthetic/centrality/out-degree/metrics.xlsx
+++ b/src/models/baselines/SVM/results/synthetic/centrality/out-degree/metrics.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -512,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9949494949494949</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9949494949494949</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -582,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994949494949494</v>
+        <v>0.998989898989899</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9994949494949494</v>
+        <v>0.998989898989899</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00159710992937798</v>
+        <v>0.002129479905837306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00159710992937798</v>
+        <v>0.002129479905837306</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
